--- a/src/test/java/hobbyKing/testData/LoginData.xlsx
+++ b/src/test/java/hobbyKing/testData/LoginData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Australia</t>
   </si>
@@ -31,10 +28,28 @@
     <t>United States</t>
   </si>
   <si>
-    <t>TR_P10A</t>
-  </si>
-  <si>
-    <t>SKU</t>
+    <t>countrytobeselected</t>
+  </si>
+  <si>
+    <t>hkusername</t>
+  </si>
+  <si>
+    <t>hkpassword</t>
+  </si>
+  <si>
+    <t>praveen.kumar@hobbyking.com</t>
+  </si>
+  <si>
+    <t>hobbyking123</t>
+  </si>
+  <si>
+    <t>praveen.kumar_g@hobbyking.com</t>
+  </si>
+  <si>
+    <t>Praveen@123</t>
+  </si>
+  <si>
+    <t>praveensmile.kumar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -106,13 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +431,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,30 +439,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -461,29 +475,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
+    <row r="3" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
